--- a/mod/z02_clipit_api/libraries/performance_palette/performance_palette_de.xlsx
+++ b/mod/z02_clipit_api/libraries/performance_palette/performance_palette_de.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pebs74\Documents\PhpstormProjects\clipit_master\mod\z02_clipit_api\libraries\performance_palette\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="165"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="121">
   <si>
     <t>category</t>
   </si>
@@ -30,342 +25,84 @@
     <t>Format</t>
   </si>
   <si>
-    <t>Performance format is the manner of executing a performance</t>
-  </si>
-  <si>
     <t>Animation</t>
   </si>
   <si>
-    <t>To animate a film, the filmmaker films drawings, illustrations or models frame by frame. Each frame differs slightly from the one before it, giving the illusion of movement when frames are projected in rapid succession at 24 frames per second.</t>
-  </si>
-  <si>
     <t>Spirited Away (Japan 2001 – classic Studio Ghibli), Snow White (1937), The Adventures of Prince Achmed (1937), Shrek 2 (2004).</t>
   </si>
   <si>
-    <t>Behind-the-scenes</t>
-  </si>
-  <si>
-    <t>A behind-the-scenes is a documentary that uses video to discuss the process of making the video, the roles taken in its production, and the learning from the experience. It might look at the costumes, the scene painting, rehearsals, wardrobe, and take-outs.</t>
-  </si>
-  <si>
     <t>Lost In La Mancha (Gilliam 2002).</t>
   </si>
   <si>
-    <t>Commentary</t>
-  </si>
-  <si>
-    <t>This genre is most commonly associated with DVDs and Blu-ray special features. Crewmembers, such as actors, directors and producers, are gathered in a studio to speak in real-time (or what appears to be real time) about the movie as it plays.</t>
-  </si>
-  <si>
     <t>Mash-up</t>
   </si>
   <si>
-    <t>A mash-up consists of lots of assets (videos, music, audio, stills) collected together into one film.</t>
-  </si>
-  <si>
-    <t>Chat show</t>
-  </si>
-  <si>
-    <t>A chat show involves a host and a guest or guests who discuss the topics and questions that the host puts to them.</t>
-  </si>
-  <si>
     <t>Richard &amp; Judy, The Jerry Springer show, Die Harald Schmidt Show.</t>
   </si>
   <si>
-    <t>Game</t>
-  </si>
-  <si>
-    <t>A game is play that is fun, provides a challenge or a goal, with rules that allow or constrain moves or behaviours or things.</t>
-  </si>
-  <si>
     <t>Space invaders, Noughts and crosses (tac-tac-toe), Carcassonne.</t>
   </si>
   <si>
-    <t>Non-verbal</t>
-  </si>
-  <si>
-    <t>Juggling, dance, silent movie, music.</t>
-  </si>
-  <si>
-    <t>Piece-to-camera</t>
-  </si>
-  <si>
-    <t>Subject or presenter addresses the camera directly, and by association the audience. This has an immediate and direct effect on the audience. This is commonly used in a video diary format or when a news reporter is in a dramatic situation and is reporting directly from there.</t>
-  </si>
-  <si>
-    <t>Reporting from a famine or war zone.</t>
-  </si>
-  <si>
     <t>Pitch</t>
   </si>
   <si>
-    <t>A pitch is a verbal argument as to why your film is worth making so you make a proposal for support of cash or time for your film. A pitch could be a formal presentation or a chance encounter.</t>
-  </si>
-  <si>
-    <t>Puppets</t>
-  </si>
-  <si>
-    <t>Puppets can be hand puppets or marionettes, and the video is created in real.</t>
-  </si>
-  <si>
-    <t>The Muppets, Sesame Street, Spitting Image</t>
-  </si>
-  <si>
-    <t>Tutorial</t>
-  </si>
-  <si>
-    <t>A tutorial is a means for interactively teaching a small group of people with examples and exercises on a specific topic.</t>
-  </si>
-  <si>
     <t>Code academy: http://www.codecademy.com/, https://www.khanacademy.org/</t>
   </si>
   <si>
-    <t>Video diary</t>
-  </si>
-  <si>
-    <t>A video diary is a personal view of how the speaker sees the world, with immediate reactions and thoughts. The setting will reflect the speaker’s passions and interests.  The technical simplicity of the set-up means that anyone can record their thoughts straight to camera without recourse to complex camera set-ups. Non-professionals often use video diary is used by to create an intimate diary of a situation, and it is usually recorded alone.</t>
-  </si>
-  <si>
-    <t>Stop motion</t>
-  </si>
-  <si>
-    <t>Stop motion is the same as animation, where, by moving an object a small bit at a time between frames, it appears animated.  It can be done for example with Lego bricks, or clay models.</t>
-  </si>
-  <si>
-    <t>The Polar Express (2004)</t>
-  </si>
-  <si>
-    <t>Treatment</t>
-  </si>
-  <si>
-    <t>A treatment is a written proposal that summarises the proposed film, with enough detail to decide if the idea is worth supporting, what purpose it will serve, &amp; who might be the potential audience. It will include: title, tagline, duration, target audience, concept, production, creative and technical descriptions.</t>
-  </si>
-  <si>
     <t>Genre</t>
   </si>
   <si>
-    <t>Genre is the style or category of the performance.</t>
-  </si>
-  <si>
     <t>Action</t>
   </si>
   <si>
-    <t>Action includes creative fiction with exciting sequences such as car chases or martial arts.</t>
-  </si>
-  <si>
     <t>Bruce Lee, James Bond, The Hunger Games: Catching Fire (2013)</t>
   </si>
   <si>
-    <t>Adventure</t>
-  </si>
-  <si>
-    <t>Adventure is fictional writing where the story is about something exciting and risky happening.</t>
-  </si>
-  <si>
-    <t>King Kong (2005), Indiana Jones films</t>
-  </si>
-  <si>
-    <t>Comedy</t>
-  </si>
-  <si>
-    <t>A comedy is an amusing plot, written to please and cause people to laugh.</t>
-  </si>
-  <si>
-    <t>Mrs Brown’s Boys on BBC, Pink Panther films with Peter Sellers as Inspector Clouseau, Jacques Tati – Monsieur Hulot’s Holiday (1953), Robert Altman's M*A*S*H (1970)</t>
-  </si>
-  <si>
-    <t>Documentary</t>
-  </si>
-  <si>
-    <t>A documentary is not fiction, but aims to tell of or show the lives of the people or places of interest, often aiming to analyse or to persuade. Documentaries are developing stylistic devices commonly associated with other genres, such as the use of sfx &amp; dramatic re-enactment.</t>
-  </si>
-  <si>
     <t>Supersize Me (2004), Fahrenheit 9/11 (2004)</t>
   </si>
   <si>
     <t>Drama</t>
   </si>
   <si>
-    <t>Drama is a (usually) serious performance of fiction, and might be comedy or tragedy. It has an underlying plot, realistic characters and settings.</t>
-  </si>
-  <si>
-    <t>Shakespeare’s plays</t>
-  </si>
-  <si>
     <t>Fantasy</t>
   </si>
   <si>
-    <t>Fantasy is fiction that uses magic, imagination, the supernatural and fantastic to plot the story.  It may also be considered a sci-fi genre.</t>
-  </si>
-  <si>
-    <t>The Lord of the Rings, Harry Potter &amp; the Deathly Hallows, Pan’s Labyrinth (Spain 2006)</t>
-  </si>
-  <si>
     <t>History</t>
   </si>
   <si>
-    <t>This genre includes stories of adventure, biography, drama or war.</t>
-  </si>
-  <si>
-    <t>Elizabeth (1998), All Quiet on the Western Front (Germany 1930), Saving Private Ryan  (1998)</t>
-  </si>
-  <si>
     <t>Musical</t>
   </si>
   <si>
-    <t>Musicals have the main members of the cast singing and dancing.</t>
-  </si>
-  <si>
     <t>West Side Story, Mamma Mia, Hum Saath Saath Hain (Bollywood 1999)</t>
   </si>
   <si>
     <t>Mystery</t>
   </si>
   <si>
-    <t>A mystery is a fictional plot with a puzzle to investigate and solve.  For instance, a murder mystery might open with a dead body found floating face down in the swimming pool of a plush mansion.</t>
-  </si>
-  <si>
-    <t>Sherlock</t>
-  </si>
-  <si>
-    <t>Parody</t>
-  </si>
-  <si>
-    <t>A parody mocks by imitating and exaggerating, making a comic effect.</t>
-  </si>
-  <si>
     <t>Spitting Image, The Thick of It (UK)</t>
   </si>
   <si>
     <t>Sci-fi</t>
   </si>
   <si>
-    <t>Science fiction deals with fiction that includes technology, science or something futuristic.</t>
-  </si>
-  <si>
-    <t>Frankenstein (commonly regarded as horror), War of the Worlds (1953 and 2005), Solaris (Russian 1972), AI, The Matrix</t>
-  </si>
-  <si>
-    <t>Sports</t>
-  </si>
-  <si>
-    <t>Sports films have a sports setting or a competitive event.</t>
-  </si>
-  <si>
-    <t>Field of Dreams (1989), The Loneliness of the Long Distance Runner (1962), Senna (2011)</t>
-  </si>
-  <si>
-    <t>Suspense</t>
-  </si>
-  <si>
-    <t>Suspense keeps you excited, uneasy and uncertain, feeling on the edge of knowledge, knowledge that might scare or please you.</t>
-  </si>
-  <si>
-    <t>Hitchcock films – ‘Hitch’ was regarded as the ‘master of suspense’, Alien (1979), The French Connection (1971), Double Indemnity (1944)</t>
-  </si>
-  <si>
     <t>Thriller</t>
   </si>
   <si>
-    <t>Thrillers combine genres of suspense, mystery, crime and suspense, exciting the viewer, and raising the tension, anticipation, excitement.</t>
-  </si>
-  <si>
-    <t>Hitchcock films e.g. The Birds (1963)</t>
-  </si>
-  <si>
-    <t>Video diary or Vlog</t>
-  </si>
-  <si>
-    <t>These videos show personal views of life, of how something has happened or is still happening.</t>
-  </si>
-  <si>
-    <t>Zoella (on YouTube)</t>
-  </si>
-  <si>
-    <t>Current affairs</t>
-  </si>
-  <si>
-    <t>This genre is broadcast journalism, requiring analysis and discussion of news.</t>
-  </si>
-  <si>
-    <t>BBC Radio 4 Today programme</t>
-  </si>
-  <si>
-    <t>This genre involves a group of people chatting with their host about various topics. People may call in to offer their opinions and share experience</t>
-  </si>
-  <si>
     <t>Oprah Winfrey</t>
   </si>
   <si>
     <t>Reality TV</t>
   </si>
   <si>
-    <t>Unscripted events and situations make reality TV, and may include competitions.</t>
-  </si>
-  <si>
-    <t>The Apprentice, Big Brother, Film of Slumdog, Millionaire, Dragons’ Den</t>
-  </si>
-  <si>
-    <t>Wildlife documentary</t>
-  </si>
-  <si>
-    <t>This genre is documentary about nature or wild life.</t>
-  </si>
-  <si>
-    <t>Life on Earth</t>
-  </si>
-  <si>
-    <t>Soap opera</t>
-  </si>
-  <si>
-    <t>This genre has a domestic or melodramatic theme, of family matters with multiple stock characters and situations, in a serialised programme.</t>
-  </si>
-  <si>
     <t>East Enders, Neighbours, Home &amp; Away, Lindenstraße</t>
   </si>
   <si>
     <t>Story</t>
   </si>
   <si>
-    <t>Choices of plot, characters and setting interrelate and make one story different from another.</t>
-  </si>
-  <si>
     <t>Plot</t>
   </si>
   <si>
-    <t>A plot explains events and resolves some sort of a conflict, so it goes beyond mere description e.g., not “boy meets girl” but “boy meets girl and wants to marry her, but to win her love, he has to kill the dragon”.  Choice of character and setting make a plot more convincing.</t>
-  </si>
-  <si>
-    <t>‘The king died, and then the queen died’ is a story, whereas’ the king died, and then the queen died of grief’ is a plot.</t>
-  </si>
-  <si>
-    <t>Setting</t>
-  </si>
-  <si>
-    <t>Consider the location, time and setting of the action, whether it is indoors or outdoors, day or evening. The plot takes place in these circumstances.</t>
-  </si>
-  <si>
-    <t>A dark black space, The moon, A grassy field, A large deserted derelict Gothic mansion</t>
-  </si>
-  <si>
-    <t>Characters</t>
-  </si>
-  <si>
-    <t>Characters are the people whose actions, thoughts and emotions make the story.</t>
-  </si>
-  <si>
-    <t>A quiet and reticent mouse, An angry scientist and his mischievous student, A humorous pair who know nothing about science but ‘spout’ all the wrong (but commonly held misconceptions) about a topic.</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>Concept or visual concept acts an alternative to a story in a conventional sense. It can be visual style meaning how the director creates image and style.</t>
-  </si>
-  <si>
-    <t>Concept of family such as in The Godfather (1972)</t>
-  </si>
-  <si>
     <t>language</t>
   </si>
   <si>
@@ -382,16 +119,320 @@
   </si>
   <si>
     <t>de</t>
+  </si>
+  <si>
+    <t>Um einen Film zu animieren, filmt der Filmemacher Zeichnungen, Abbildungen oder Modelle Bild für Bild. Jedes Bild unterscheidet sich leicht vom vorherigen, so dass der Eindruck von Bewegung entsteht, wenn die Bilder in schneller Abfolge mit 24 Bildern pro Sekunde projiziert werden.</t>
+  </si>
+  <si>
+    <t>Die Darbietungsform ist die Art und Weise, wie eine Darbietung ausgeführt wird.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ein Blick hinter die Kulissen ist ein Dokumentarfilm, der Video dazu verwendet, den Prozess der Videoentstehung, die übernommenen Rollen in der Produktion und die gewonnene Erfahrung zu diskutieren. Er kann dabei auch auf die Requisiten, Bühnenmalerei, Proben, Kostüme und Take-Outs eingehen. </t>
+  </si>
+  <si>
+    <t>Dieses Genre wird meist mit DVDs und Blu-ray-Beigaben verbunden. Mitwirkende, wie Schauspieler, Regisseure und Produzenten werden in einem Studio versammelt, um in Echtzeit (oder was wie Echtzeit wirkt) über den Film, wie er spielt, zu sprechen.</t>
+  </si>
+  <si>
+    <t>in Mash-up besteht aus vielen Medienstücken (Videos, Musik, Audio, Standbilder), die zu einem Film zusammengefügt werden.</t>
+  </si>
+  <si>
+    <t>Kommentar</t>
+  </si>
+  <si>
+    <t>Hinter den Kulissen</t>
+  </si>
+  <si>
+    <t>Talkshow</t>
+  </si>
+  <si>
+    <t>Eine Talkshow beinhaltet einen Gastgeber und einen oder mehrere Gäste, die Themen und Fragen des Gastgebers diskutieren.</t>
+  </si>
+  <si>
+    <t>Spiel</t>
+  </si>
+  <si>
+    <t>Ein Spiel ist eine Aufführung, die Spaß macht, eine Herausforderung oder ein Ziel bietet, mit Regeln, die Bewegungen, Verhaltensweisen oder Dinge erlauben oder beschränken.</t>
+  </si>
+  <si>
+    <t>Nonverbal</t>
+  </si>
+  <si>
+    <t>Es werden andere Mittel als Worte dazu verwendet, um die Botschaft rüberzubringen</t>
+  </si>
+  <si>
+    <t>Person oder Moderator richtet sich direkt an die Kamera und damit an das Publikum. Dies hat eine unmittelbare und direkte Wirkung auf das Publikum. Dies wird allgemein in einem Videotagebuch-Format verwendet oder wenn ein Reporter in einer dramatischen Situation ist und direkt von dort berichtet.</t>
+  </si>
+  <si>
+    <t>Vor-Ort-Bericht</t>
+  </si>
+  <si>
+    <t>Ein Verkaufsgespräch ist eine verbale Argumentation, warum es lohnenswert ist den eigenen Film mit Geld oder Zeit zu unterstützen. Ein Verkaufsgespräch kann eine formelle Präsentation oder eine Zufallsbegegnung sein.</t>
+  </si>
+  <si>
+    <t>Berichterstattung von einer Hungersnot oder Kriegsgebiet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Jonglieren
+• Tanzen
+• Stummfilm
+• Musik
+</t>
+  </si>
+  <si>
+    <t>Puppenspiel</t>
+  </si>
+  <si>
+    <t>Puppen können Handpuppen oder Marionetten sein und das Video wird, im Gegensatz zur Zeitraffer-Technik, in Echtzeit erstellt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• The Muppets
+• Sesamstraße
+• Spitting Image
+</t>
+  </si>
+  <si>
+    <t>Anleitung</t>
+  </si>
+  <si>
+    <t>Eine Anleitung ist ein Mittel zum interaktiven Unterricht einer kleinen Gruppe von Menschen, mit Beispielen und Übungen zu einem bestimmten Thema.</t>
+  </si>
+  <si>
+    <t>Ein Videotagebuch ist eine persönliche Sicht, wie der Sprecher die Welt mit sofortigen Reaktionen und Gedanken sieht. Die Situation spiegelt Leidenschaften und Interessen des Sprechers wider. Die technische Einfachheit der Einstellung bedeutet, dass jeder seine Gedanken direkt auf der Kamera  und ohne Rückgriff auf komplexe Kameraeinstellungen aufnehmen kann. Amateure verwenden oft ein Videotagebuch, um ein intimes Tagebuch einer Situation zu schaffen und es ist in der Regel allein aufgezeichnet.</t>
+  </si>
+  <si>
+    <t>Videotagebuch</t>
+  </si>
+  <si>
+    <t>Zeitraffer sind das gleiche wie Animationen, wobei durch das Verschieben eines Objekts um ein kleines Stück zwischen den Bildern, es animiert erscheint. Es kann beispielsweise mit Legosteinen oder Ton-Modellen durchgeführt werden.</t>
+  </si>
+  <si>
+    <t>Zeitraffer</t>
+  </si>
+  <si>
+    <t>Der Polar Express (2004)</t>
+  </si>
+  <si>
+    <t>Angebot</t>
+  </si>
+  <si>
+    <t>Eine Angebot ist ein schriftlicher Vorschlag, der den vorgeschlagenen Film mit genug Details zusammenfasst, um zu entscheiden, ob die Idee es wert ist unterstützt zu werden, welchem Zweck sie dienen soll und wer das potentielle Publikum sein könnte. Es enthält: Titel, Untertitel, Dauer, Zielgruppe, Konzept, Produktion, kreative und technische Beschreibungen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genre ist der Stil oder die Kategorie der Darbietung. Der Stil und die Klischees des Genres werden verwendet, um einen Film auf eine bestimmte Art dem 
+Publikum zu verkaufen. 
+Verschiedene Genres 
+haben unterschiedliche Konventionen. 
+Ein typischer Horrorfilm hat z.B. eine andere Gruppe 
+von Klischees als eine romantische Komödie.
+</t>
+  </si>
+  <si>
+    <t>Action beinhaltet kreative Fiktion mit spannenden Sequenzen wie Verfolgungsjagden oder Kampfsport.</t>
+  </si>
+  <si>
+    <t>Abenteuer</t>
+  </si>
+  <si>
+    <t>Ein Abenteuer ist fiktives Schreiben, wo in der Geschichte etwas Spannendes und Riskantes geschieht</t>
+  </si>
+  <si>
+    <t>King Kong (2005), Indiana Jones Filme</t>
+  </si>
+  <si>
+    <t>Komödie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eine Komödie ist eine amüsante Handlung, die geschrieben wurde um zu gefallen und Leute zum Lachen zu bringen. 
+</t>
+  </si>
+  <si>
+    <t>Mrs Brown’s Boys on BBC,Rosarote Panther mit Peter Sellers als Inspector Clouseau, Jacques Tati – Monsieur Hulot’s Holiday (1953), Robert Altman's M*A*S*H (1970)</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Ein Dokumentarfilm ist keine Fiktion, sondern zielt darauf ab, das Leben der Menschen oder Orte von Interesse zu zeigen, oft auch mit dem Ziel, zu analysieren oder zu überzeugen. Dokumentationen sind sich entwickelnde Stilmittel, die häufig mit anderen Genres verbunden sind, wie zum Beispiel durch den Einsatz von Spezialeffekten &amp; dramatische Wiederholungen.</t>
+  </si>
+  <si>
+    <t>Drama ist (meist) eine ernste Darbietung von Fiktion und kann Komödie oder Tragödie sein. Es hat eine zugrunde liegende Handlung, realistische Charaktere und eine Situation.</t>
+  </si>
+  <si>
+    <t>Shakespeare Aufführungen</t>
+  </si>
+  <si>
+    <t>Fantasy ist Fiktion, die Magie, Phantasie, das Übernatürliche und Fantastische verwendet, um die Geschichte zu konstruieren. Es kann auch als ein Science-Fiction-Genre bezeichnet werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Herr der Ringe
+• Harry Potter &amp; die Heiligtümer des Todes
+• Pans Labyrinth (Spain 2006)
+</t>
+  </si>
+  <si>
+    <t>Dieses Genre umfasst Geschichten von Abenteuern, Biografien, Drama oder Krieg</t>
+  </si>
+  <si>
+    <t>Elizabeth (1998), Im Westen nichts neues (1930), Der Soldat James Ryan  (1998)</t>
+  </si>
+  <si>
+    <t>Beim Musical singen und tanzen die wichtigsten Schauspieler.</t>
+  </si>
+  <si>
+    <t>Ein Mystery-Film hat eine fiktive Handlung mit einem Puzzle, dass es zu untersuchen und lösen gilt. Zum Beispiel könnte ein Krimi mit einer Leiche anfangen, die mit dem Gesicht nach unten in dem Pool eines vornehmen Herrenhauses gefunden wird.</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>Parodie</t>
+  </si>
+  <si>
+    <t>Eine Parodie verspottet etwas durch Nachahmung und Übertreibung, so dass es eine komische Wirkung hat.</t>
+  </si>
+  <si>
+    <t>Science-Fiction beschäftigt sich mit Fiktion, Technik, Wissenschaft oder etwas Futuristischen.</t>
+  </si>
+  <si>
+    <t>Frankenstein (gemeinhin als Horror betrachtet), Krieg der Welten (1953 and 2005), Solaris (Russian 1972), AI,  Matrix</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Sportfilme haben ein Sportumfeld oder einen Wettkampf als Thema.</t>
+  </si>
+  <si>
+    <t>Feld der Träume (1989), Der Marathonmann (1962), Senna (2011)</t>
+  </si>
+  <si>
+    <t>Spannung</t>
+  </si>
+  <si>
+    <t>Spannung hält uns erregt, unruhig und unsicher, gibt uns das Gefühl etwas zu wissen, das uns Angst machen oder erfreuen könnte.</t>
+  </si>
+  <si>
+    <t>Hitchcock Filme, Alien (1979),  French Connection (1971)</t>
+  </si>
+  <si>
+    <t>Thriller kombinieren Genres der Spannung, Mystery, Krimis und Spannung, erregen den Zuschauer und erhöhen der Spannung, Erwartung und Aufregung.</t>
+  </si>
+  <si>
+    <t>Hitchcock Filme e.g. Die Vögel (1963)</t>
+  </si>
+  <si>
+    <t>Seifenoper</t>
+  </si>
+  <si>
+    <t>Dieses Genre hat ein häusliches oder melo-dramatisches Motto, handelt von Familienange-legenheiten mit mehreren charakteristischen Personen und Situationen, in einer serialisierten Sendefolge.</t>
+  </si>
+  <si>
+    <t>Tierfilm</t>
+  </si>
+  <si>
+    <t>Dieses Genre umfasst Dokumentationen über die Natur oder das wilde Leben.</t>
+  </si>
+  <si>
+    <t>Das Leben der Tiere</t>
+  </si>
+  <si>
+    <t>Improvisierte Ereignisse und Situationen definieren Reality TV und können auch Wettbewerbe einschließen.</t>
+  </si>
+  <si>
+    <t>Frauentausch, Big Brother,  Slumdog, Millionaire</t>
+  </si>
+  <si>
+    <t>ieses Genre umfasst eine Gruppe von Menschen die mit ihrem Moderator über verschiedene Themen plaudern. Menschen können anrufen, um ihre Meinungen einzubringen und Erfahrungen auszutauschen</t>
+  </si>
+  <si>
+    <t>Nachrichten</t>
+  </si>
+  <si>
+    <t>Dieses Genre ist Fernsehjournalismus und erfordert eine Analyse und Diskussion von Nachrichten.</t>
+  </si>
+  <si>
+    <t>Monitor, Brennpunkt</t>
+  </si>
+  <si>
+    <t>Diese Videos zeigen persönliche Ansichten des Lebens, wie etwas passiert ist oder noch geschehen wird.</t>
+  </si>
+  <si>
+    <t>Zoella (YouTube)</t>
+  </si>
+  <si>
+    <t>Die Wahl der Handlung, Charaktere und des Umfelds hängen zusammen und unterscheiden eine Geschichte von einer anderen.</t>
+  </si>
+  <si>
+    <t>Eine Handlung erklärt Ereignisse und löst eine Art von Konflikt, so dass sie über die bloße Beschreibung von z.B. "Junge trifft Mädchen" hinausgeht und es stattdessen heißt "Junge trifft Mädchen und will sie heiraten, aber um ihre Liebe zu gewinnen, muss er den Drachen töten". Die Wahl des Charakters und der Einstellung machen eine Handlung überzeugender.</t>
+  </si>
+  <si>
+    <t>"Der König starb und dann starb die Königin" ist eine Geschichte, während "Der König starb und dann starb die Königin vor Trauer" ist eine Handlung ist</t>
+  </si>
+  <si>
+    <t>Betrachten Sie den Ort, die Zeit und das Umfeld der Handlung, sei es drinnen oder draußen, Tag oder Abend. Die Handlung findet unter diesen Umständen statt.</t>
+  </si>
+  <si>
+    <t>Umgebung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Ein dunkler schwarzer Ort
+• Der Mond
+• Eine Wiese
+• Ein großes verlassenes gotisches Herrenhau
+</t>
+  </si>
+  <si>
+    <t>Charaktere</t>
+  </si>
+  <si>
+    <t>Charaktere sind die Menschen, deren Handlungen, Gedanken und Emotionen die Geschichte ausmachen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Eine ruhige und zurückhaltende Maus
+• Ein wütender Wissenschaftler und seine schelmischen Schüler
+• Ein humorvolles Paar, das nichts über die Wissenschaft, aber alles Falsche (aber allgemein gehaltene Missverständnisse) über ein Thema weiß.
+</t>
+  </si>
+  <si>
+    <t>Ein Konzept oder visuelles Konzept wirkt wie  eine Alternative zu einer Geschichte im herkömmlichen Sinne. Es kann der visuelle Stil sein, wie der Regisseur das Bild und Aussehen erzeugt.</t>
+  </si>
+  <si>
+    <t>Konzept</t>
+  </si>
+  <si>
+    <t>Konzept einer Familie wie in The Godfather (1972)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -415,15 +456,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -778,7 +831,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -789,10 +842,10 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B39"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="43" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="43" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -806,19 +859,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
@@ -827,70 +880,70 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="G2" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G3" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>3</v>
+      <c r="G4" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
@@ -898,19 +951,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>3</v>
+      <c r="G5" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
@@ -918,65 +971,68 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G6" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>3</v>
+      <c r="G8" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
@@ -984,108 +1040,109 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="G9" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E10" s="5"/>
       <c r="F10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>53</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G11" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="G12" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>3</v>
+      <c r="G13" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -1093,571 +1150,571 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="G14" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G15" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
@@ -1665,22 +1722,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>102</v>
+        <v>27</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/mod/z02_clipit_api/libraries/performance_palette/performance_palette_de.xlsx
+++ b/mod/z02_clipit_api/libraries/performance_palette/performance_palette_de.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pebs74\Documents\PhpstormProjects\clipit_master\mod\z02_clipit_api\libraries\performance_palette\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="165"/>
   </bookViews>
@@ -407,32 +412,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="26"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Century Gothic"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -456,27 +439,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -831,7 +802,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -842,10 +813,10 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="43" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="43" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -858,885 +829,889 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="E4"/>
+      <c r="F4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="E5"/>
+      <c r="F5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="2" t="s">
+      <c r="E10"/>
+      <c r="F10" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="E13"/>
+      <c r="F13" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="E15"/>
+      <c r="F15" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>81</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>83</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>90</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>93</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>94</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>95</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>105</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>99</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>100</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>97</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" t="s">
         <v>111</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" t="s">
         <v>27</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>112</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s">
         <v>114</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" t="s">
         <v>27</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>116</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
         <v>117</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" t="s">
         <v>27</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
         <v>119</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" t="s">
         <v>120</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" t="s">
         <v>109</v>
       </c>
     </row>
